--- a/TestData/TMTI0055018_VerifyInternalDealTeamSpecialtyRoleIncreasedLimitForFRLOBOpportunityEngagement.xlsx
+++ b/TestData/TMTI0055018_VerifyInternalDealTeamSpecialtyRoleIncreasedLimitForFRLOBOpportunityEngagement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E88E226-4159-42E7-89B5-62194BBD35F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24868BDD-3B2F-4F04-BE3E-4FEA99AE2862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{6B024EC1-CFC4-4478-BEDE-727CE3160023}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" firstSheet="1" activeTab="3" xr2:uid="{6B024EC1-CFC4-4478-BEDE-727CE3160023}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -310,9 +310,6 @@
     <t>Rijul Malik</t>
   </si>
   <si>
-    <t>Samuel Ward</t>
-  </si>
-  <si>
     <t>Shane Soobotin</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t>26</t>
+  </si>
+  <si>
+    <t>Joseph Julian</t>
   </si>
 </sst>
 </file>
@@ -728,9 +728,9 @@
       <selection activeCell="AE1" sqref="AE1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -939,9 +939,9 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -949,7 +949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -970,9 +970,9 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -998,7 +998,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1033,150 +1033,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4D31B6-974B-4F27-AE1C-8524FC5854B9}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1192,16 +1195,16 @@
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1213,30 +1216,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F878363-A374-4264-8076-44FFB06F4C56}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TMTI0055018_VerifyInternalDealTeamSpecialtyRoleIncreasedLimitForFRLOBOpportunityEngagement.xlsx
+++ b/TestData/TMTI0055018_VerifyInternalDealTeamSpecialtyRoleIncreasedLimitForFRLOBOpportunityEngagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24868BDD-3B2F-4F04-BE3E-4FEA99AE2862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CA69AA-AFFF-4F0D-831A-A0704AFA5201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" firstSheet="1" activeTab="3" xr2:uid="{6B024EC1-CFC4-4478-BEDE-727CE3160023}"/>
   </bookViews>
@@ -307,9 +307,6 @@
     <t>Reda El Madi</t>
   </si>
   <si>
-    <t>Rijul Malik</t>
-  </si>
-  <si>
     <t>Shane Soobotin</t>
   </si>
   <si>
@@ -319,9 +316,6 @@
     <t>Spencer Anderson</t>
   </si>
   <si>
-    <t>Walid Chamma</t>
-  </si>
-  <si>
     <t>Zev Litwin</t>
   </si>
   <si>
@@ -344,6 +338,12 @@
   </si>
   <si>
     <t>Joseph Julian</t>
+  </si>
+  <si>
+    <t>Laura Kimmel</t>
+  </si>
+  <si>
+    <t>JP Hanson</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -408,6 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,7 +1035,7 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,47 +1144,48 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>88</v>
+      <c r="A21" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1199,12 +1201,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1228,18 +1230,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
